--- a/InputData/OGHIST.xlsx
+++ b/InputData/OGHIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/hmaeda_worldbank_org/Documents/CodeMaps/Country/FY23/Prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/hmaeda_worldbank_org/Documents/CodeMaps/Country/FY24/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{FF3303F1-2B1B-4B27-A8EE-F9FCD2FF4570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2BFB23-7BB5-4BA8-9AF1-C1075AA833AB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5DD3E766-65A0-47BB-B916-ECAFA47A0AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A38C20-7EC7-43D6-8C3C-5F94C425B13D}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="1" hidden="1">Thresholds!$I$7:$Q$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Country Analytical History'!$A$12:$IU$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Country Analytical History'!$A$11:$IU$229</definedName>
     <definedName name="_Key1" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Key1" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14485" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14746" uniqueCount="944">
   <si>
     <t>Document:</t>
   </si>
@@ -3025,10 +3025,40 @@
     <t>&lt;= 2,045</t>
   </si>
   <si>
-    <t>&gt; 7,455</t>
-  </si>
-  <si>
     <t>&lt;= 1,255</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>&lt;= 2,145</t>
+  </si>
+  <si>
+    <t>&gt; 1,315</t>
+  </si>
+  <si>
+    <t>&gt; 7,445</t>
+  </si>
+  <si>
+    <t>&gt; 7,805</t>
+  </si>
+  <si>
+    <t>&lt;= 1,315</t>
+  </si>
+  <si>
+    <t>1,136-4,465</t>
+  </si>
+  <si>
+    <t>4,466-13,845</t>
+  </si>
+  <si>
+    <t>&gt; 13,845</t>
+  </si>
+  <si>
+    <t>1,136 - 4,465</t>
+  </si>
+  <si>
+    <t>4,466 - 13,845</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3069,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -3155,6 +3185,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3178,6 +3209,10 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3214,7 +3249,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3379,6 +3414,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3403,7 +3439,103 @@
     <cellStyle name="Normal_cty99" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal_cty99 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4893,13 +5025,13 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX47"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="AU8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BD20" sqref="BD20"/>
+      <selection pane="bottomRight" activeCell="AZ19" sqref="AZ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4912,31 +5044,31 @@
     <col min="27" max="32" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="47" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="11.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="49" max="51" width="11.7109375" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>618</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -5071,7 +5203,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -5218,8 +5350,11 @@
       <c r="AX5" s="3">
         <v>44743</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AY5" s="3">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -5362,8 +5497,11 @@
       <c r="AX6" s="54" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AY6" s="54" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>36</v>
       </c>
@@ -5514,11 +5652,14 @@
       <c r="AX7" s="38">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY7" s="38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
     </row>
-    <row r="9" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>37</v>
       </c>
@@ -5543,12 +5684,12 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60" t="s">
         <v>647</v>
       </c>
@@ -5695,8 +5836,11 @@
       <c r="AX11" s="47" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY11" s="47" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>758</v>
       </c>
@@ -5841,8 +5985,11 @@
       <c r="AX12" s="59" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY12" s="59" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>757</v>
       </c>
@@ -5987,8 +6134,11 @@
       <c r="AX13" s="48" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY13" s="48" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>759</v>
       </c>
@@ -6121,8 +6271,11 @@
       <c r="AX14" s="5" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY14" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>760</v>
       </c>
@@ -6253,10 +6406,13 @@
         <v>918</v>
       </c>
       <c r="AX15" s="48" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+      <c r="AY15" s="48" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6282,7 +6438,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>761</v>
       </c>
@@ -6403,23 +6559,26 @@
         <v>827</v>
       </c>
       <c r="AX17" s="49" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+        <v>932</v>
+      </c>
+      <c r="AY17" s="49" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>77</v>
       </c>
@@ -6528,8 +6687,11 @@
       <c r="AX21" s="73" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY21" s="73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>78</v>
       </c>
@@ -6638,8 +6800,11 @@
       <c r="AX22" s="73" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY22" s="73" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>76</v>
       </c>
@@ -6748,8 +6913,11 @@
       <c r="AX23" s="73" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY23" s="73" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>75</v>
       </c>
@@ -6872,41 +7040,44 @@
       <c r="AX24" s="74" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AY24" s="74" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>732</v>
       </c>
@@ -6986,11 +7157,11 @@
   </sheetPr>
   <dimension ref="A1:IU240"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="AD11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="AG29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
+      <selection pane="bottomRight" activeCell="AP32" sqref="AP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7005,6 +7176,7 @@
     <col min="25" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.42578125" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="15.75" x14ac:dyDescent="0.25">
@@ -7135,6 +7307,9 @@
       <c r="AK5" s="20" t="s">
         <v>922</v>
       </c>
+      <c r="AL5" s="20" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="6" spans="1:255" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
@@ -7249,7 +7424,9 @@
       <c r="AK6" s="30">
         <v>2021</v>
       </c>
-      <c r="AL6" s="30"/>
+      <c r="AL6" s="30">
+        <v>2022</v>
+      </c>
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
       <c r="AO6" s="30"/>
@@ -7582,6 +7759,9 @@
       <c r="AK7" s="51" t="s">
         <v>923</v>
       </c>
+      <c r="AL7" s="47" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="8" spans="1:255" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
@@ -7697,6 +7877,9 @@
       <c r="AK8" s="51" t="s">
         <v>924</v>
       </c>
+      <c r="AL8" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="9" spans="1:255" x14ac:dyDescent="0.2">
       <c r="B9" s="63" t="s">
@@ -7812,6 +7995,9 @@
       <c r="AK9" s="51" t="s">
         <v>925</v>
       </c>
+      <c r="AL9" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="10" spans="1:255" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
@@ -7927,6 +8113,9 @@
       <c r="AK10" s="51" t="s">
         <v>926</v>
       </c>
+      <c r="AL10" s="6" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="11" spans="1:255" x14ac:dyDescent="0.2">
       <c r="AJ11" s="6"/>
@@ -8044,6 +8233,9 @@
       <c r="AK12" s="6" t="s">
         <v>548</v>
       </c>
+      <c r="AL12" s="6" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="13" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
@@ -8157,6 +8349,9 @@
       <c r="AK13" s="6" t="s">
         <v>551</v>
       </c>
+      <c r="AL13" s="6" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="14" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
@@ -8270,6 +8465,9 @@
       <c r="AK14" s="6" t="s">
         <v>550</v>
       </c>
+      <c r="AL14" s="6" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="15" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
@@ -8383,6 +8581,9 @@
       <c r="AK15" s="6" t="s">
         <v>551</v>
       </c>
+      <c r="AL15" s="6" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="16" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
@@ -8496,8 +8697,11 @@
       <c r="AK16" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>243</v>
       </c>
@@ -8609,8 +8813,11 @@
       <c r="AK17" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL17" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>244</v>
       </c>
@@ -8722,8 +8929,11 @@
       <c r="AK18" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL18" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
         <v>246</v>
       </c>
@@ -8835,8 +9045,11 @@
       <c r="AK19" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL19" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
         <v>247</v>
       </c>
@@ -8948,8 +9161,11 @@
       <c r="AK20" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL20" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
         <v>248</v>
       </c>
@@ -9061,8 +9277,11 @@
       <c r="AK21" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL21" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="65" t="s">
         <v>250</v>
       </c>
@@ -9174,8 +9393,11 @@
       <c r="AK22" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL22" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
         <v>252</v>
       </c>
@@ -9287,8 +9509,11 @@
       <c r="AK23" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL23" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="s">
         <v>254</v>
       </c>
@@ -9400,8 +9625,11 @@
       <c r="AK24" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL24" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="65" t="s">
         <v>255</v>
       </c>
@@ -9513,8 +9741,11 @@
       <c r="AK25" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL25" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="65" t="s">
         <v>257</v>
       </c>
@@ -9626,8 +9857,11 @@
       <c r="AK26" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL26" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="65" t="s">
         <v>259</v>
       </c>
@@ -9739,8 +9973,11 @@
       <c r="AK27" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL27" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="65" t="s">
         <v>261</v>
       </c>
@@ -9852,8 +10089,11 @@
       <c r="AK28" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL28" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="65" t="s">
         <v>263</v>
       </c>
@@ -9965,8 +10205,11 @@
       <c r="AK29" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL29" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="65" t="s">
         <v>264</v>
       </c>
@@ -10078,8 +10321,11 @@
       <c r="AK30" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL30" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="65" t="s">
         <v>266</v>
       </c>
@@ -10191,8 +10437,11 @@
       <c r="AK31" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL31" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>267</v>
       </c>
@@ -10304,8 +10553,11 @@
       <c r="AK32" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL32" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="65" t="s">
         <v>269</v>
       </c>
@@ -10417,8 +10669,11 @@
       <c r="AK33" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL33" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="65" t="s">
         <v>271</v>
       </c>
@@ -10530,8 +10785,11 @@
       <c r="AK34" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL34" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="65" t="s">
         <v>273</v>
       </c>
@@ -10643,8 +10901,11 @@
       <c r="AK35" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL35" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="s">
         <v>275</v>
       </c>
@@ -10756,8 +11017,11 @@
       <c r="AK36" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL36" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="s">
         <v>276</v>
       </c>
@@ -10869,8 +11133,11 @@
       <c r="AK37" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL37" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
         <v>277</v>
       </c>
@@ -10982,8 +11249,11 @@
       <c r="AK38" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL38" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="s">
         <v>858</v>
       </c>
@@ -11095,8 +11365,11 @@
       <c r="AK39" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL39" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="s">
         <v>278</v>
       </c>
@@ -11208,8 +11481,11 @@
       <c r="AK40" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL40" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
         <v>279</v>
       </c>
@@ -11321,8 +11597,11 @@
       <c r="AK41" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL41" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
         <v>280</v>
       </c>
@@ -11434,8 +11713,11 @@
       <c r="AK42" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL42" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
         <v>282</v>
       </c>
@@ -11547,8 +11829,11 @@
       <c r="AK43" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL43" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="65" t="s">
         <v>289</v>
       </c>
@@ -11660,8 +11945,11 @@
       <c r="AK44" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL44" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="65" t="s">
         <v>284</v>
       </c>
@@ -11773,8 +12061,11 @@
       <c r="AK45" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL45" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="65" t="s">
         <v>286</v>
       </c>
@@ -11886,8 +12177,11 @@
       <c r="AK46" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL46" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="65" t="s">
         <v>287</v>
       </c>
@@ -11999,8 +12293,11 @@
       <c r="AK47" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL47" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="65" t="s">
         <v>290</v>
       </c>
@@ -12112,8 +12409,11 @@
       <c r="AK48" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL48" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="65" t="s">
         <v>292</v>
       </c>
@@ -12225,8 +12525,11 @@
       <c r="AK49" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL49" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="s">
         <v>294</v>
       </c>
@@ -12338,8 +12641,11 @@
       <c r="AK50" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL50" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="65" t="s">
         <v>296</v>
       </c>
@@ -12451,8 +12757,11 @@
       <c r="AK51" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL51" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="65" t="s">
         <v>298</v>
       </c>
@@ -12564,8 +12873,11 @@
       <c r="AK52" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL52" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="65" t="s">
         <v>299</v>
       </c>
@@ -12677,8 +12989,11 @@
       <c r="AK53" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL53" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="65" t="s">
         <v>300</v>
       </c>
@@ -12790,8 +13105,11 @@
       <c r="AK54" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL54" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="65" t="s">
         <v>301</v>
       </c>
@@ -12903,8 +13221,11 @@
       <c r="AK55" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL55" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="65" t="s">
         <v>864</v>
       </c>
@@ -13016,8 +13337,11 @@
       <c r="AK56" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL56" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="65" t="s">
         <v>304</v>
       </c>
@@ -13129,8 +13453,11 @@
       <c r="AK57" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL57" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="65" t="s">
         <v>306</v>
       </c>
@@ -13242,8 +13569,11 @@
       <c r="AK58" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL58" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="65" t="s">
         <v>307</v>
       </c>
@@ -13355,8 +13685,11 @@
       <c r="AK59" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL59" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="65" t="s">
         <v>309</v>
       </c>
@@ -13468,8 +13801,11 @@
       <c r="AK60" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL60" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="65" t="s">
         <v>310</v>
       </c>
@@ -13581,8 +13917,11 @@
       <c r="AK61" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL61" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="65" t="s">
         <v>809</v>
       </c>
@@ -13694,8 +14033,11 @@
       <c r="AK62" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL62" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="65" t="s">
         <v>312</v>
       </c>
@@ -13807,8 +14149,11 @@
       <c r="AK63" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL63" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="65" t="s">
         <v>314</v>
       </c>
@@ -13920,8 +14265,11 @@
       <c r="AK64" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL64" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="65" t="s">
         <v>315</v>
       </c>
@@ -14033,8 +14381,11 @@
       <c r="AK65" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL65" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="65" t="s">
         <v>317</v>
       </c>
@@ -14146,8 +14497,11 @@
       <c r="AK66" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL66" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="65" t="s">
         <v>319</v>
       </c>
@@ -14259,8 +14613,11 @@
       <c r="AK67" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL67" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="65" t="s">
         <v>320</v>
       </c>
@@ -14372,8 +14729,11 @@
       <c r="AK68" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL68" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="65" t="s">
         <v>321</v>
       </c>
@@ -14485,8 +14845,11 @@
       <c r="AK69" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL69" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="65" t="s">
         <v>322</v>
       </c>
@@ -14598,8 +14961,11 @@
       <c r="AK70" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL70" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="65" t="s">
         <v>323</v>
       </c>
@@ -14711,8 +15077,11 @@
       <c r="AK71" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL71" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="65" t="s">
         <v>324</v>
       </c>
@@ -14824,8 +15193,11 @@
       <c r="AK72" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL72" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="65" t="s">
         <v>325</v>
       </c>
@@ -14937,8 +15309,11 @@
       <c r="AK73" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL73" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="65" t="s">
         <v>327</v>
       </c>
@@ -15050,8 +15425,11 @@
       <c r="AK74" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL74" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="65" t="s">
         <v>506</v>
       </c>
@@ -15163,8 +15541,11 @@
       <c r="AK75" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL75" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="65" t="s">
         <v>328</v>
       </c>
@@ -15276,8 +15657,11 @@
       <c r="AK76" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL76" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="65" t="s">
         <v>330</v>
       </c>
@@ -15389,8 +15773,11 @@
       <c r="AK77" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL77" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="65" t="s">
         <v>332</v>
       </c>
@@ -15502,8 +15889,11 @@
       <c r="AK78" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL78" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="65" t="s">
         <v>333</v>
       </c>
@@ -15615,8 +16005,11 @@
       <c r="AK79" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL79" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="65" t="s">
         <v>335</v>
       </c>
@@ -15728,8 +16121,11 @@
       <c r="AK80" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL80" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="65" t="s">
         <v>337</v>
       </c>
@@ -15841,8 +16237,11 @@
       <c r="AK81" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL81" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="65" t="s">
         <v>339</v>
       </c>
@@ -15954,8 +16353,11 @@
       <c r="AK82" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL82" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="65" t="s">
         <v>340</v>
       </c>
@@ -16067,8 +16469,11 @@
       <c r="AK83" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL83" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="65" t="s">
         <v>342</v>
       </c>
@@ -16180,8 +16585,11 @@
       <c r="AK84" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL84" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="65" t="s">
         <v>343</v>
       </c>
@@ -16293,8 +16701,11 @@
       <c r="AK85" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL85" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="65" t="s">
         <v>345</v>
       </c>
@@ -16406,8 +16817,11 @@
       <c r="AK86" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL86" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="65" t="s">
         <v>561</v>
       </c>
@@ -16519,8 +16933,11 @@
       <c r="AK87" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL87" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="65" t="s">
         <v>346</v>
       </c>
@@ -16632,8 +17049,11 @@
       <c r="AK88" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL88" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="65" t="s">
         <v>348</v>
       </c>
@@ -16745,8 +17165,11 @@
       <c r="AK89" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL89" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="65" t="s">
         <v>350</v>
       </c>
@@ -16858,8 +17281,11 @@
       <c r="AK90" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL90" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="65" t="s">
         <v>351</v>
       </c>
@@ -16971,8 +17397,11 @@
       <c r="AK91" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL91" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="65" t="s">
         <v>353</v>
       </c>
@@ -17084,8 +17513,11 @@
       <c r="AK92" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL92" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="65" t="s">
         <v>354</v>
       </c>
@@ -17197,8 +17629,11 @@
       <c r="AK93" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL93" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="65" t="s">
         <v>356</v>
       </c>
@@ -17310,8 +17745,11 @@
       <c r="AK94" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL94" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="65" t="s">
         <v>358</v>
       </c>
@@ -17423,8 +17861,11 @@
       <c r="AK95" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL95" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="65" t="s">
         <v>359</v>
       </c>
@@ -17536,8 +17977,11 @@
       <c r="AK96" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL96" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="65" t="s">
         <v>361</v>
       </c>
@@ -17649,8 +18093,11 @@
       <c r="AK97" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL97" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="65" t="s">
         <v>362</v>
       </c>
@@ -17762,8 +18209,11 @@
       <c r="AK98" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL98" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="65" t="s">
         <v>364</v>
       </c>
@@ -17875,8 +18325,11 @@
       <c r="AK99" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL99" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="65" t="s">
         <v>365</v>
       </c>
@@ -17988,8 +18441,11 @@
       <c r="AK100" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL100" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="65" t="s">
         <v>367</v>
       </c>
@@ -18101,8 +18557,11 @@
       <c r="AK101" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL101" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="65" t="s">
         <v>369</v>
       </c>
@@ -18214,8 +18673,11 @@
       <c r="AK102" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL102" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="65" t="s">
         <v>370</v>
       </c>
@@ -18327,8 +18789,11 @@
       <c r="AK103" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL103" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="65" t="s">
         <v>372</v>
       </c>
@@ -18440,8 +18905,11 @@
       <c r="AK104" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL104" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="65" t="s">
         <v>374</v>
       </c>
@@ -18553,8 +19021,11 @@
       <c r="AK105" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL105" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="65" t="s">
         <v>865</v>
       </c>
@@ -18666,8 +19137,11 @@
       <c r="AK106" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL106" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="65" t="s">
         <v>377</v>
       </c>
@@ -18779,8 +19253,11 @@
       <c r="AK107" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL107" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="65" t="s">
         <v>379</v>
       </c>
@@ -18892,8 +19369,11 @@
       <c r="AK108" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL108" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="65" t="s">
         <v>381</v>
       </c>
@@ -19005,8 +19485,11 @@
       <c r="AK109" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL109" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="65" t="s">
         <v>382</v>
       </c>
@@ -19118,8 +19601,11 @@
       <c r="AK110" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL110" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="65" t="s">
         <v>384</v>
       </c>
@@ -19231,8 +19717,11 @@
       <c r="AK111" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL111" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="65" t="s">
         <v>385</v>
       </c>
@@ -19344,8 +19833,11 @@
       <c r="AK112" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL112" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="65" t="s">
         <v>386</v>
       </c>
@@ -19457,8 +19949,11 @@
       <c r="AK113" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL113" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="65" t="s">
         <v>387</v>
       </c>
@@ -19570,8 +20065,11 @@
       <c r="AK114" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL114" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="65" t="s">
         <v>388</v>
       </c>
@@ -19683,8 +20181,11 @@
       <c r="AK115" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL115" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="65" t="s">
         <v>390</v>
       </c>
@@ -19796,8 +20297,11 @@
       <c r="AK116" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL116" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="65" t="s">
         <v>866</v>
       </c>
@@ -19909,8 +20413,11 @@
       <c r="AK117" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL117" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="65" t="s">
         <v>391</v>
       </c>
@@ -20022,8 +20529,11 @@
       <c r="AK118" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL118" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="65" t="s">
         <v>393</v>
       </c>
@@ -20135,8 +20645,11 @@
       <c r="AK119" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL119" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="65" t="s">
         <v>394</v>
       </c>
@@ -20248,8 +20761,11 @@
       <c r="AK120" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL120" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="65" t="s">
         <v>396</v>
       </c>
@@ -20361,8 +20877,11 @@
       <c r="AK121" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL121" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="65" t="s">
         <v>397</v>
       </c>
@@ -20474,8 +20993,11 @@
       <c r="AK122" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL122" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="65" t="s">
         <v>398</v>
       </c>
@@ -20587,8 +21109,11 @@
       <c r="AK123" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL123" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="65" t="s">
         <v>399</v>
       </c>
@@ -20700,8 +21225,11 @@
       <c r="AK124" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL124" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="65" t="s">
         <v>400</v>
       </c>
@@ -20813,8 +21341,11 @@
       <c r="AK125" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL125" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="65" t="s">
         <v>402</v>
       </c>
@@ -20926,8 +21457,11 @@
       <c r="AK126" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL126" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="65" t="s">
         <v>404</v>
       </c>
@@ -21039,8 +21573,11 @@
       <c r="AK127" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL127" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="65" t="s">
         <v>405</v>
       </c>
@@ -21152,8 +21689,11 @@
       <c r="AK128" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL128" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="65" t="s">
         <v>407</v>
       </c>
@@ -21265,8 +21805,11 @@
       <c r="AK129" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL129" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="65" t="s">
         <v>410</v>
       </c>
@@ -21378,8 +21921,11 @@
       <c r="AK130" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL130" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="65" t="s">
         <v>412</v>
       </c>
@@ -21491,8 +22037,11 @@
       <c r="AK131" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL131" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="65" t="s">
         <v>414</v>
       </c>
@@ -21604,8 +22153,11 @@
       <c r="AK132" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL132" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="65" t="s">
         <v>415</v>
       </c>
@@ -21717,8 +22269,11 @@
       <c r="AK133" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL133" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="65" t="s">
         <v>416</v>
       </c>
@@ -21830,8 +22385,11 @@
       <c r="AK134" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL134" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="65" t="s">
         <v>418</v>
       </c>
@@ -21943,8 +22501,11 @@
       <c r="AK135" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL135" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="65" t="s">
         <v>420</v>
       </c>
@@ -22056,8 +22617,11 @@
       <c r="AK136" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL136" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="65" t="s">
         <v>422</v>
       </c>
@@ -22169,8 +22733,11 @@
       <c r="AK137" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL137" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="65" t="s">
         <v>423</v>
       </c>
@@ -22282,8 +22849,11 @@
       <c r="AK138" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL138" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="65" t="s">
         <v>426</v>
       </c>
@@ -22395,8 +22965,11 @@
       <c r="AK139" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL139" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="65" t="s">
         <v>427</v>
       </c>
@@ -22508,8 +23081,11 @@
       <c r="AK140" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL140" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="65" t="s">
         <v>429</v>
       </c>
@@ -22621,8 +23197,11 @@
       <c r="AK141" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL141" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="65" t="s">
         <v>430</v>
       </c>
@@ -22734,8 +23313,11 @@
       <c r="AK142" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL142" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="65" t="s">
         <v>432</v>
       </c>
@@ -22847,8 +23429,11 @@
       <c r="AK143" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL143" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="65" t="s">
         <v>767</v>
       </c>
@@ -22960,8 +23545,11 @@
       <c r="AK144" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL144" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="65" t="s">
         <v>433</v>
       </c>
@@ -23073,8 +23661,11 @@
       <c r="AK145" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL145" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="65" t="s">
         <v>434</v>
       </c>
@@ -23186,8 +23777,11 @@
       <c r="AK146" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL146" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="65" t="s">
         <v>436</v>
       </c>
@@ -23299,8 +23893,11 @@
       <c r="AK147" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL147" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="65" t="s">
         <v>438</v>
       </c>
@@ -23412,8 +24009,11 @@
       <c r="AK148" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL148" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="65" t="s">
         <v>860</v>
       </c>
@@ -23525,8 +24125,11 @@
       <c r="AK149" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL149" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="65" t="s">
         <v>439</v>
       </c>
@@ -23638,8 +24241,11 @@
       <c r="AK150" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL150" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="65" t="s">
         <v>441</v>
       </c>
@@ -23751,8 +24357,11 @@
       <c r="AK151" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL151" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="65" t="s">
         <v>445</v>
       </c>
@@ -23864,8 +24473,11 @@
       <c r="AK152" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL152" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="65" t="s">
         <v>447</v>
       </c>
@@ -23977,8 +24589,11 @@
       <c r="AK153" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL153" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="65" t="s">
         <v>449</v>
       </c>
@@ -24090,8 +24705,11 @@
       <c r="AK154" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL154" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="65" t="s">
         <v>450</v>
       </c>
@@ -24203,8 +24821,11 @@
       <c r="AK155" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL155" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="65" t="s">
         <v>452</v>
       </c>
@@ -24316,8 +24937,11 @@
       <c r="AK156" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL156" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="65" t="s">
         <v>409</v>
       </c>
@@ -24429,8 +25053,11 @@
       <c r="AK157" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL157" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="65" t="s">
         <v>453</v>
       </c>
@@ -24542,8 +25169,11 @@
       <c r="AK158" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL158" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="65" t="s">
         <v>455</v>
       </c>
@@ -24655,8 +25285,11 @@
       <c r="AK159" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL159" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="65" t="s">
         <v>457</v>
       </c>
@@ -24768,8 +25401,11 @@
       <c r="AK160" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL160" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="65" t="s">
         <v>459</v>
       </c>
@@ -24881,8 +25517,11 @@
       <c r="AK161" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL161" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="65" t="s">
         <v>461</v>
       </c>
@@ -24994,8 +25633,11 @@
       <c r="AK162" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL162" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="65" t="s">
         <v>462</v>
       </c>
@@ -25107,8 +25749,11 @@
       <c r="AK163" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL163" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="65" t="s">
         <v>463</v>
       </c>
@@ -25220,8 +25865,11 @@
       <c r="AK164" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL164" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="65" t="s">
         <v>464</v>
       </c>
@@ -25333,8 +25981,11 @@
       <c r="AK165" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL165" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="65" t="s">
         <v>465</v>
       </c>
@@ -25446,8 +26097,11 @@
       <c r="AK166" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL166" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="65" t="s">
         <v>466</v>
       </c>
@@ -25559,8 +26213,11 @@
       <c r="AK167" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL167" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="65" t="s">
         <v>467</v>
       </c>
@@ -25672,8 +26329,11 @@
       <c r="AK168" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL168" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="65" t="s">
         <v>468</v>
       </c>
@@ -25785,8 +26445,11 @@
       <c r="AK169" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL169" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="65" t="s">
         <v>469</v>
       </c>
@@ -25898,8 +26561,11 @@
       <c r="AK170" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL170" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="65" t="s">
         <v>471</v>
       </c>
@@ -26011,8 +26677,11 @@
       <c r="AK171" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL171" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="65" t="s">
         <v>867</v>
       </c>
@@ -26124,8 +26793,11 @@
       <c r="AK172" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL172" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="65" t="s">
         <v>473</v>
       </c>
@@ -26237,8 +26909,11 @@
       <c r="AK173" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL173" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="65" t="s">
         <v>474</v>
       </c>
@@ -26350,8 +27025,11 @@
       <c r="AK174" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL174" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175" s="65" t="s">
         <v>476</v>
       </c>
@@ -26463,8 +27141,11 @@
       <c r="AK175" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL175" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176" s="65" t="s">
         <v>477</v>
       </c>
@@ -26576,8 +27257,11 @@
       <c r="AK176" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL176" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="65" t="s">
         <v>479</v>
       </c>
@@ -26689,8 +27373,11 @@
       <c r="AK177" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL177" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="65" t="s">
         <v>480</v>
       </c>
@@ -26802,8 +27489,11 @@
       <c r="AK178" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL178" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="65" t="s">
         <v>482</v>
       </c>
@@ -26915,8 +27605,11 @@
       <c r="AK179" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL179" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="65" t="s">
         <v>768</v>
       </c>
@@ -27028,8 +27721,11 @@
       <c r="AK180" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL180" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="65" t="s">
         <v>485</v>
       </c>
@@ -27141,8 +27837,11 @@
       <c r="AK181" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL181" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="65" t="s">
         <v>486</v>
       </c>
@@ -27254,8 +27953,11 @@
       <c r="AK182" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL182" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="65" t="s">
         <v>488</v>
       </c>
@@ -27367,8 +28069,11 @@
       <c r="AK183" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL183" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="65" t="s">
         <v>810</v>
       </c>
@@ -27480,8 +28185,11 @@
       <c r="AK184" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL184" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="65" t="s">
         <v>490</v>
       </c>
@@ -27593,8 +28301,11 @@
       <c r="AK185" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL185" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="65" t="s">
         <v>491</v>
       </c>
@@ -27706,8 +28417,11 @@
       <c r="AK186" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL186" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="65" t="s">
         <v>493</v>
       </c>
@@ -27819,8 +28533,11 @@
       <c r="AK187" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL187" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" s="65" t="s">
         <v>494</v>
       </c>
@@ -27932,8 +28649,11 @@
       <c r="AK188" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL188" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="65" t="s">
         <v>496</v>
       </c>
@@ -28045,8 +28765,11 @@
       <c r="AK189" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL189" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="65" t="s">
         <v>821</v>
       </c>
@@ -28158,8 +28881,11 @@
       <c r="AK190" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL190" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" s="65" t="s">
         <v>497</v>
       </c>
@@ -28271,8 +28997,11 @@
       <c r="AK191" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL191" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" s="65" t="s">
         <v>499</v>
       </c>
@@ -28384,8 +29113,11 @@
       <c r="AK192" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL192" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="65" t="s">
         <v>500</v>
       </c>
@@ -28497,8 +29229,11 @@
       <c r="AK193" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL193" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194" s="65" t="s">
         <v>501</v>
       </c>
@@ -28610,8 +29345,11 @@
       <c r="AK194" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL194" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="65" t="s">
         <v>808</v>
       </c>
@@ -28723,8 +29461,11 @@
       <c r="AK195" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL195" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="65" t="s">
         <v>502</v>
       </c>
@@ -28836,8 +29577,11 @@
       <c r="AK196" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL196" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="65" t="s">
         <v>504</v>
       </c>
@@ -28949,8 +29693,11 @@
       <c r="AK197" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL197" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="65" t="s">
         <v>505</v>
       </c>
@@ -29062,8 +29809,11 @@
       <c r="AK198" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL198" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="65" t="s">
         <v>507</v>
       </c>
@@ -29175,8 +29925,11 @@
       <c r="AK199" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL199" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="65" t="s">
         <v>509</v>
       </c>
@@ -29288,8 +30041,11 @@
       <c r="AK200" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL200" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="65" t="s">
         <v>511</v>
       </c>
@@ -29401,8 +30157,11 @@
       <c r="AK201" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL201" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="65" t="s">
         <v>512</v>
       </c>
@@ -29514,8 +30273,11 @@
       <c r="AK202" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL202" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="65" t="s">
         <v>514</v>
       </c>
@@ -29627,8 +30389,11 @@
       <c r="AK203" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL203" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="65" t="s">
         <v>515</v>
       </c>
@@ -29740,8 +30505,11 @@
       <c r="AK204" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL204" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="65" t="s">
         <v>517</v>
       </c>
@@ -29853,8 +30621,11 @@
       <c r="AK205" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL205" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="65" t="s">
         <v>868</v>
       </c>
@@ -29966,8 +30737,11 @@
       <c r="AK206" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL206" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="65" t="s">
         <v>519</v>
       </c>
@@ -30079,8 +30853,11 @@
       <c r="AK207" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL207" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="65" t="s">
         <v>520</v>
       </c>
@@ -30192,8 +30969,11 @@
       <c r="AK208" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL208" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="65" t="s">
         <v>521</v>
       </c>
@@ -30305,8 +31085,11 @@
       <c r="AK209" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL209" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="65" t="s">
         <v>522</v>
       </c>
@@ -30418,8 +31201,11 @@
       <c r="AK210" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL210" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="65" t="s">
         <v>524</v>
       </c>
@@ -30531,8 +31317,11 @@
       <c r="AK211" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL211" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="65" t="s">
         <v>525</v>
       </c>
@@ -30644,8 +31433,11 @@
       <c r="AK212" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL212" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="65" t="s">
         <v>794</v>
       </c>
@@ -30757,8 +31549,11 @@
       <c r="AK213" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL213" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="65" t="s">
         <v>795</v>
       </c>
@@ -30870,8 +31665,11 @@
       <c r="AK214" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL214" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" s="65" t="s">
         <v>526</v>
       </c>
@@ -30983,8 +31781,11 @@
       <c r="AK215" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL215" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" s="65" t="s">
         <v>528</v>
       </c>
@@ -31096,8 +31897,11 @@
       <c r="AK216" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL216" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" s="65" t="s">
         <v>529</v>
       </c>
@@ -31209,8 +32013,11 @@
       <c r="AK217" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL217" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" s="65" t="s">
         <v>531</v>
       </c>
@@ -31322,8 +32129,11 @@
       <c r="AK218" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL218" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="65" t="s">
         <v>533</v>
       </c>
@@ -31435,8 +32245,11 @@
       <c r="AK219" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL219" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="65" t="s">
         <v>535</v>
       </c>
@@ -31548,8 +32361,11 @@
       <c r="AK220" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL220" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="65" t="s">
         <v>536</v>
       </c>
@@ -31661,8 +32477,11 @@
       <c r="AK221" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL221" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="65" t="s">
         <v>537</v>
       </c>
@@ -31774,8 +32593,11 @@
       <c r="AK222" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL222" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="65" t="s">
         <v>538</v>
       </c>
@@ -31883,8 +32705,9 @@
       </c>
       <c r="AJ223" s="6"/>
       <c r="AK223" s="6"/>
-    </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL223" s="6"/>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="65" t="s">
         <v>540</v>
       </c>
@@ -31996,8 +32819,11 @@
       <c r="AK224" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL224" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="65" t="s">
         <v>542</v>
       </c>
@@ -32109,8 +32935,11 @@
       <c r="AK225" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL225" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="65" t="s">
         <v>869</v>
       </c>
@@ -32222,8 +33051,11 @@
       <c r="AK226" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL226" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="65" t="s">
         <v>545</v>
       </c>
@@ -32335,8 +33167,11 @@
       <c r="AK227" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL227" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="65" t="s">
         <v>546</v>
       </c>
@@ -32448,8 +33283,11 @@
       <c r="AK228" s="51" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL228" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="65" t="s">
         <v>547</v>
       </c>
@@ -32561,8 +33399,11 @@
       <c r="AK229" s="28" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL229" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -32597,7 +33438,7 @@
       <c r="AH230" s="6"/>
       <c r="AI230" s="6"/>
     </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>554</v>
       </c>
@@ -32635,7 +33476,7 @@
       <c r="AH231" s="6"/>
       <c r="AI231" s="6"/>
     </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -32670,7 +33511,7 @@
       <c r="AH232" s="6"/>
       <c r="AI232" s="6"/>
     </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="65" t="s">
         <v>559</v>
       </c>
@@ -32721,7 +33562,7 @@
       <c r="AH233" s="6"/>
       <c r="AI233" s="6"/>
     </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="65" t="s">
         <v>424</v>
       </c>
@@ -32810,7 +33651,7 @@
       <c r="AH234" s="6"/>
       <c r="AI234" s="6"/>
     </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="65" t="s">
         <v>443</v>
       </c>
@@ -32897,7 +33738,7 @@
       <c r="AH235" s="6"/>
       <c r="AI235" s="6"/>
     </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="65" t="s">
         <v>483</v>
       </c>
@@ -32976,7 +33817,7 @@
       <c r="AH236" s="6"/>
       <c r="AI236" s="6"/>
     </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237" s="65" t="s">
         <v>558</v>
       </c>
@@ -33025,7 +33866,7 @@
       <c r="AH237" s="6"/>
       <c r="AI237" s="6"/>
     </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="65" t="s">
         <v>560</v>
       </c>
@@ -33076,371 +33917,412 @@
       <c r="AH238" s="6"/>
       <c r="AI238" s="6"/>
     </row>
-    <row r="240" spans="1:37" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="77" t="s">
+    <row r="240" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="78" t="s">
         <v>812</v>
       </c>
-      <c r="C240" s="78"/>
-      <c r="D240" s="78"/>
-      <c r="E240" s="78"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="78"/>
-      <c r="H240" s="78"/>
-      <c r="I240" s="78"/>
-      <c r="J240" s="78"/>
+      <c r="C240" s="79"/>
+      <c r="D240" s="79"/>
+      <c r="E240" s="79"/>
+      <c r="F240" s="79"/>
+      <c r="G240" s="79"/>
+      <c r="H240" s="79"/>
+      <c r="I240" s="79"/>
+      <c r="J240" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B240:J240"/>
   </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="I236:U236 D236:G236 D235:Y235 D234:Z234 D191:Z198 D12:AD86 AE20:AH86 D199:AH229 D158:Z189 D130:AA157 AA158:AA198 D88:AH129 AB130:AH198">
-    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="78" stopIfTrue="1">
       <formula>D12&lt;&gt;C12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y87">
-    <cfRule type="expression" dxfId="70" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>Y87&lt;&gt;X87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z87">
-    <cfRule type="expression" dxfId="69" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
       <formula>Z87&lt;&gt;Y87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y195">
-    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="75" stopIfTrue="1">
       <formula>Y195&lt;&gt;X195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z195">
-    <cfRule type="expression" dxfId="67" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="74" stopIfTrue="1">
       <formula>Z195&lt;&gt;Y195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y184">
-    <cfRule type="expression" dxfId="66" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
       <formula>Y184&lt;&gt;X184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z184">
-    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="72" stopIfTrue="1">
       <formula>Z184&lt;&gt;Y184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA195">
-    <cfRule type="expression" dxfId="64" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="71" stopIfTrue="1">
       <formula>AA195&lt;&gt;Z195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA184">
-    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
       <formula>AA184&lt;&gt;Z184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA87">
-    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="69" stopIfTrue="1">
       <formula>AA87&lt;&gt;Z87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87">
-    <cfRule type="expression" dxfId="61" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="68" stopIfTrue="1">
       <formula>J87&lt;&gt;I87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB195">
-    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
       <formula>AB195&lt;&gt;AA195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB184">
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="66" stopIfTrue="1">
       <formula>AB184&lt;&gt;AA184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB87">
-    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="65" stopIfTrue="1">
       <formula>AB87&lt;&gt;AA87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC195">
-    <cfRule type="expression" dxfId="57" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>AC195&lt;&gt;AB195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC184">
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="63" stopIfTrue="1">
       <formula>AC184&lt;&gt;AB184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC87">
-    <cfRule type="expression" dxfId="55" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
       <formula>AC87&lt;&gt;AB87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD195">
-    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
       <formula>AD195&lt;&gt;AC195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD184">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="60" stopIfTrue="1">
       <formula>AD184&lt;&gt;AC184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD87">
-    <cfRule type="expression" dxfId="52" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
       <formula>AD87&lt;&gt;AC87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE18">
-    <cfRule type="expression" dxfId="51" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>AE12&lt;&gt;AD12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE195">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
       <formula>AE195&lt;&gt;AD195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE184">
-    <cfRule type="expression" dxfId="49" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="56" stopIfTrue="1">
       <formula>AE184&lt;&gt;AD184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE87">
-    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
       <formula>AE87&lt;&gt;AD87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="54" stopIfTrue="1">
       <formula>AE19&lt;&gt;AD19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AF18">
-    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
       <formula>AF12&lt;&gt;AE12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF195">
-    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
       <formula>AF195&lt;&gt;AE195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF184">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="51" stopIfTrue="1">
       <formula>AF184&lt;&gt;AE184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF87">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="50" stopIfTrue="1">
       <formula>AF87&lt;&gt;AE87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF19">
-    <cfRule type="expression" dxfId="42" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
       <formula>AF19&lt;&gt;AE19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG18">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="48" stopIfTrue="1">
       <formula>AG12&lt;&gt;AF12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG195">
-    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
       <formula>AG195&lt;&gt;AF195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG184">
-    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
       <formula>AG184&lt;&gt;AF184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG87">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
       <formula>AG87&lt;&gt;AF87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19">
-    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
       <formula>AG19&lt;&gt;AF19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AH18">
-    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
       <formula>AH12&lt;&gt;AG12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH195">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>AH195&lt;&gt;AG195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH184">
-    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="41" stopIfTrue="1">
       <formula>AH184&lt;&gt;AG184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH87">
-    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
       <formula>AH87&lt;&gt;AG87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
       <formula>AH19&lt;&gt;AG19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20:AI86 AI88:AI229 AJ59 AJ62 AJ77 AJ115 AJ177 AJ202">
-    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
       <formula>AI20&lt;&gt;AH20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AI18">
-    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>AI12&lt;&gt;AH12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI195">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
       <formula>AI195&lt;&gt;AH195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI184">
-    <cfRule type="expression" dxfId="28" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
       <formula>AI184&lt;&gt;AH184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI87">
-    <cfRule type="expression" dxfId="27" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>AI87&lt;&gt;AH87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
       <formula>AI19&lt;&gt;AH19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31">
-    <cfRule type="expression" dxfId="25" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
       <formula>AJ31&lt;&gt;AI31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ96">
-    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>AJ96&lt;&gt;AI96</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ102">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
       <formula>AJ102&lt;&gt;AI102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ103">
-    <cfRule type="expression" dxfId="22" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
       <formula>AJ103&lt;&gt;AI103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ138">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>AJ138&lt;&gt;AI138</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ141">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="27" stopIfTrue="1">
       <formula>AJ141&lt;&gt;AI141</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ163">
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="26" stopIfTrue="1">
       <formula>AJ163&lt;&gt;AI163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ172">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>AJ172&lt;&gt;AI172</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ175">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="24" stopIfTrue="1">
       <formula>AJ175&lt;&gt;AI175</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ203">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
       <formula>AJ203&lt;&gt;AI203</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK59 AK62 AK77 AK115 AK177 AK202">
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="AK59:AL59 AK62:AL62 AK77:AL77 AK115:AL115 AK177:AL177 AK202:AL202">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>AK59&lt;&gt;AJ59</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="AK31:AL31">
+    <cfRule type="expression" dxfId="22" priority="21" stopIfTrue="1">
       <formula>AK31&lt;&gt;AJ31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK96">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="AK96:AL96">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>AK96&lt;&gt;AJ96</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK102">
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>AK102&lt;&gt;AJ102</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK103">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="AK103:AL103">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
       <formula>AK103&lt;&gt;AJ103</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK138">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="AK138:AL138">
+    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
       <formula>AK138&lt;&gt;AJ138</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK141">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="AK141:AL141">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>AK141&lt;&gt;AJ141</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK163">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="AK163:AL163">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AK163&lt;&gt;AJ163</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK172">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="AK172:AL172">
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
       <formula>AK172&lt;&gt;AJ172</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK175">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="AK175:AL175">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>AK175&lt;&gt;AJ175</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK203">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="AK203:AL203">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>AK203&lt;&gt;AJ203</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK162">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="AK162:AL162">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>AK162&lt;&gt;AJ162</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK122">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="AK122:AL122">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>AK122&lt;&gt;AJ122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK228">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+      <formula>AK228&lt;&gt;AJ228</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+      <formula>AL15&lt;&gt;AK15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL95">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>AL95&lt;&gt;AK95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL71">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+      <formula>AL71&lt;&gt;AK71</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL226">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+      <formula>AL226&lt;&gt;AK226</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL102">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>AL102&lt;&gt;AK102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL111">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+      <formula>AL111&lt;&gt;AK111</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL93">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AL93&lt;&gt;AK93</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL228">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AK228&lt;&gt;AJ228</formula>
+      <formula>AL228&lt;&gt;AK228</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33453,11 +34335,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K512"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E504" sqref="E504"/>
+      <pane ySplit="10" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E519" sqref="E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33475,13 +34357,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>871</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
@@ -37529,12 +38411,12 @@
       </c>
     </row>
     <row r="346" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="80" t="s">
+      <c r="A346" s="81" t="s">
         <v>764</v>
       </c>
-      <c r="B346" s="80"/>
-      <c r="C346" s="80"/>
-      <c r="D346" s="80"/>
+      <c r="B346" s="81"/>
+      <c r="C346" s="81"/>
+      <c r="D346" s="81"/>
       <c r="E346" s="45"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -39932,6 +40814,104 @@
       </c>
       <c r="D512" s="13" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>355</v>
+      </c>
+      <c r="B513" s="76" t="s">
+        <v>933</v>
+      </c>
+      <c r="C513" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D513" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>181</v>
+      </c>
+      <c r="B514" s="76" t="s">
+        <v>933</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D514" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>105</v>
+      </c>
+      <c r="B515" t="s">
+        <v>933</v>
+      </c>
+      <c r="C515" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D515" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>401</v>
+      </c>
+      <c r="B516" t="s">
+        <v>933</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D516" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>421</v>
+      </c>
+      <c r="B517" t="s">
+        <v>933</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D517" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>440</v>
+      </c>
+      <c r="B518" t="s">
+        <v>933</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D518" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B519" s="52" t="s">
+        <v>933</v>
+      </c>
+      <c r="C519" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D519" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -54264,4 +55244,344 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>-1</Value>
+    </TaxCatchAll>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F0200DC389410BEDF94408689F8CB0B5B3F0C" ma:contentTypeVersion="29" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="eb8de44df1138b2c143719e7030b0535">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c21bbd07aabf60030dcf23967a052890" ns3:_="">
+    <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:WBDocs_Document_Date" minOccurs="0"/>
+                <xsd:element ref="ns3:WBDocs_Information_Classification"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns3:WBDocs_Access_To_Info_Exception" minOccurs="0"/>
+                <xsd:element ref="ns3:o1cb080a3dca4eb8a0fd03c7cc8bf8f7" minOccurs="0"/>
+                <xsd:element ref="ns3:i008215bacac45029ee8cafff4c8e93b" minOccurs="0"/>
+                <xsd:element ref="ns3:OneCMS_Subcategory" minOccurs="0"/>
+                <xsd:element ref="ns3:OneCMS_Category" minOccurs="0"/>
+                <xsd:element ref="ns3:Abstract" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3e02667f-0271-471b-bd6e-11a2e16def1d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="WBDocs_Document_Date" ma:index="3" nillable="true" ma:displayName="Document Date" ma:default="[today]" ma:format="DateTime" ma:internalName="WBDocs_Document_Date" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="WBDocs_Information_Classification" ma:index="4" ma:displayName="Information Classification" ma:default="Official Use Only" ma:format="Dropdown" ma:internalName="WBDocs_Information_Classification" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Public"/>
+          <xsd:enumeration value="Official Use Only"/>
+          <xsd:enumeration value="Confidential"/>
+          <xsd:enumeration value="Strictly Confidential"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="6" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{05c1454d-9658-4ac0-885f-15334b9f845a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a7cb9377-ccf5-4443-9e6e-34c52d66cf9d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="7" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{05c1454d-9658-4ac0-885f-15334b9f845a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="a7cb9377-ccf5-4443-9e6e-34c52d66cf9d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocId" ma:index="10" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="11" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="12" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="WBDocs_Access_To_Info_Exception" ma:index="13" nillable="true" ma:displayName="Access to Info Exception" ma:default="12. Not Assessed" ma:format="Dropdown" ma:internalName="WBDocs_Access_To_Info_Exception">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="1. Personal"/>
+          <xsd:enumeration value="2. Executive Director's Communications"/>
+          <xsd:enumeration value="3. Board Ethics Committee"/>
+          <xsd:enumeration value="4. Attorney-Client Privilege"/>
+          <xsd:enumeration value="5. Security &amp; Safety"/>
+          <xsd:enumeration value="6. Other Disclosure Regimes"/>
+          <xsd:enumeration value="7. Client / Third Party Confidence"/>
+          <xsd:enumeration value="8. Corporate/Administrative"/>
+          <xsd:enumeration value="9. Deliberative"/>
+          <xsd:enumeration value="10a-c. Financial - Forecast/Analysis/Transactions"/>
+          <xsd:enumeration value="10d. Financial - Banking &amp; Billing"/>
+          <xsd:enumeration value="11. Bank's Prerogative to Restrict"/>
+          <xsd:enumeration value="12. Not Assessed"/>
+          <xsd:enumeration value="13. Not Applicable"/>
+          <xsd:enumeration value="Unknown Policy Restriction"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="o1cb080a3dca4eb8a0fd03c7cc8bf8f7" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="o1cb080a3dca4eb8a0fd03c7cc8bf8f7" ma:taxonomyFieldName="WBDocs_Local_Document_Type" ma:displayName="Local Document Type" ma:readOnly="false" ma:default="" ma:fieldId="{81cb080a-3dca-4eb8-a0fd-03c7cc8bf8f7}" ma:taxonomyMulti="true" ma:sspId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ma:termSetId="ec380048-e675-43f7-9194-41567bcb0af6" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="i008215bacac45029ee8cafff4c8e93b" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="i008215bacac45029ee8cafff4c8e93b" ma:taxonomyFieldName="WBDocs_Originating_Unit" ma:displayName="Originating unit" ma:readOnly="false" ma:default="-1;#DECDG - Development Data Group|2ae5ce6c-bf4c-4936-8a28-da4d57c09588" ma:fieldId="{2008215b-acac-4502-9ee8-cafff4c8e93b}" ma:taxonomyMulti="true" ma:sspId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ma:termSetId="806c0147-d557-463e-8bb0-983f4f318bd5" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="OneCMS_Subcategory" ma:index="21" nillable="true" ma:displayName="Subcategory" ma:hidden="true" ma:internalName="OneCMS_Subcategory" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OneCMS_Category" ma:index="22" nillable="true" ma:displayName="Category" ma:hidden="true" ma:internalName="OneCMS_Category" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Abstract" ma:index="23" nillable="true" ma:displayName="Abstract" ma:hidden="true" ma:internalName="Abstract" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1" ma:index="2" ma:displayName="Author"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="19" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BABE3842-BECA-4BDF-B0D9-43E38B539FED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08796FC-F2AF-40F3-B2C0-0FC104661227}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/OGHIST.xlsx
+++ b/InputData/OGHIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/hmaeda_worldbank_org/Documents/CodeMaps/Country/FY24/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB514665\OneDrive - WBG\PovcalNet\GitHub\Class\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5DD3E766-65A0-47BB-B916-ECAFA47A0AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A38C20-7EC7-43D6-8C3C-5F94C425B13D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5120DC-8D6A-4284-B07C-8E1795356CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="3390" windowWidth="15900" windowHeight="11175" tabRatio="730" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="5" state="hidden" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14746" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14746" uniqueCount="945">
   <si>
     <t>Document:</t>
   </si>
@@ -3059,6 +3059,9 @@
   </si>
   <si>
     <t>4,466 - 13,845</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -4482,7 +4485,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Parameters"/>
@@ -4600,9 +4603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4640,9 +4643,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4675,26 +4678,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4727,26 +4713,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5027,7 +4996,7 @@
   </sheetPr>
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="AU8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -7157,11 +7126,11 @@
   </sheetPr>
   <dimension ref="A1:IU240"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="AG29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="AG211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AP32" sqref="AP32"/>
+      <selection pane="bottomRight" activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32712,7 +32681,7 @@
         <v>540</v>
       </c>
       <c r="B224" s="66" t="s">
-        <v>541</v>
+        <v>944</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>548</v>
@@ -55247,33 +55216,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>-1</Value>
-    </TaxCatchAll>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F0200DC389410BEDF94408689F8CB0B5B3F0C" ma:contentTypeVersion="29" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="eb8de44df1138b2c143719e7030b0535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c21bbd07aabf60030dcf23967a052890" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -55515,14 +55467,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>-1</Value>
+    </TaxCatchAll>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55535,16 +55504,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BABE3842-BECA-4BDF-B0D9-43E38B539FED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55562,18 +55537,12 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
